--- a/biology/Médecine/Jean-François-Xavier_Girod/Jean-François-Xavier_Girod.xlsx
+++ b/biology/Médecine/Jean-François-Xavier_Girod/Jean-François-Xavier_Girod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois-Xavier_Girod</t>
+          <t>Jean-François-Xavier_Girod</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-François-Xavier Girod, né en 1735 à Mignovillard et mort le 5 septembre 1783 à Châtenois, est un médecin français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois-Xavier_Girod</t>
+          <t>Jean-François-Xavier_Girod</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de médecin, médecin de Louis XVI, Girod exerça la médecine à Besançon avec autant d’habileté que de désintéressement. Resté célèbre dans l’histoire pour le rôle qu’il a joué dans la lutte contre les épidémies. Il écrivit un long mémoire à leur sujet qu’il envoya à la société de médecine de Paris, dont il était membre. Il a notamment participer avec zèle à propager l’inoculation. Introduit en premier lieu pour neutraliser l’épidémie de peste en Franche-Comté : entre 1765 et 1787, il y fit inoculer 33 619 personnes, soit plus de 10 % de la population de cette province[1]. Nommé en 1763 médecin en chef des épidémies de la province, Girod mourut victime de son zèle, au milieu de l’épidémie meurtrière qui s’était déclarée à Châtenois.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de médecin, médecin de Louis XVI, Girod exerça la médecine à Besançon avec autant d’habileté que de désintéressement. Resté célèbre dans l’histoire pour le rôle qu’il a joué dans la lutte contre les épidémies. Il écrivit un long mémoire à leur sujet qu’il envoya à la société de médecine de Paris, dont il était membre. Il a notamment participer avec zèle à propager l’inoculation. Introduit en premier lieu pour neutraliser l’épidémie de peste en Franche-Comté : entre 1765 et 1787, il y fit inoculer 33 619 personnes, soit plus de 10 % de la population de cette province. Nommé en 1763 médecin en chef des épidémies de la province, Girod mourut victime de son zèle, au milieu de l’épidémie meurtrière qui s’était déclarée à Châtenois.
 Girod était membre de la Société royale de Médecine. Son Éloge, par Vicq d’Azyr, a été imprimé dans les Mémoires de cette société. Le roi l’avait fait chevalier de l'ordre de Saint-Michel.
 </t>
         </is>
